--- a/Instances/02_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/02_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16001</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>8001</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.037</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>32001</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.03694</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2801</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>16001</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8001</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>32001</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2801</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
@@ -2965,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3078,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3166,27 +3166,203 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>4000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>8000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>700</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>700</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>700</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>700</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3201,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3270,16 +3446,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3314,16 +3490,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3358,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3402,27 +3578,203 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>7500</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3500</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>9000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1400</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Instances/02_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/02_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.037</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.03694</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
